--- a/medicine/Sexualité et sexologie/Une_famille_(film,_2024)/Une_famille_(film,_2024).xlsx
+++ b/medicine/Sexualité et sexologie/Une_famille_(film,_2024)/Une_famille_(film,_2024).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Une famille est un film français réalisé par Christine Angot et sorti en 2024.
 </t>
@@ -511,7 +523,9 @@
           <t>Synopsis</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La réalisatrice part à la rencontre de plusieurs personnes de son entourage (la veuve de son père incestueux, sa mère Rachel, sa fille Léonore, son ex-mari Claude) et les interroge vis-à-vis de l'inceste qu'elle a subi, notamment à propos de leur inaction à l'époque des faits. Le film est illustré de nombreuses vidéos et images extraites des archives familiales.
 </t>
@@ -542,7 +556,9 @@
           <t>Fiche technique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Titre : Une famille
 Réalisation : Christine Angot
@@ -586,9 +602,11 @@
           <t>Récompense</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Prix du jury des lecteurs du Tagesspiegel à la Berlinale 2024[1]</t>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Prix du jury des lecteurs du Tagesspiegel à la Berlinale 2024</t>
         </is>
       </c>
     </row>
